--- a/assets/_docs/trimestre_2/02_normalizacion_modelo_relacional_mr/Libro1.xlsx
+++ b/assets/_docs/trimestre_2/02_normalizacion_modelo_relacional_mr/Libro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Colombia\Desktop\SENA\Trimestre 2\rags_2926378\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Colombia\Desktop\rags_2926378\assets\_docs\trimestre_2\02_normalizacion_modelo_relacional_mr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F1421B-A8DF-4880-8283-5493112DBB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19052EED-08CB-4C6F-911B-8EF37EBE0442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CEC093E5-85EA-498B-BC51-8E3542483F7E}"/>
+    <workbookView xWindow="30" yWindow="120" windowWidth="14265" windowHeight="10620" xr2:uid="{CEC093E5-85EA-498B-BC51-8E3542483F7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Roles</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nombre </t>
-  </si>
-  <si>
-    <t>ficha</t>
   </si>
   <si>
     <t>contraseña</t>
@@ -191,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -204,7 +201,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AE0861-E242-4EFA-B19D-69EE6B8300A8}">
-  <dimension ref="B2:L23"/>
+  <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,21 +571,21 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="F3" s="6">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="J3" s="6">
+      <c r="J3" s="1">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -591,21 +594,21 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="F4" s="6">
+      <c r="F4" s="1">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="J4" s="6">
+      <c r="J4" s="1">
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -614,21 +617,21 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="F5" s="6">
+      <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="J5" s="6">
+      <c r="J5" s="1">
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -637,17 +640,17 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="F6" s="6">
+      <c r="F6" s="1">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="J6" s="6">
+      <c r="J6" s="1">
         <v>4</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -659,11 +662,11 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="F7" s="6">
+      <c r="F7" s="1">
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1"/>
       <c r="J7" s="1"/>
@@ -674,73 +677,89 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="F8" s="6">
+      <c r="F8" s="1">
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="F11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="F12" s="6">
+      <c r="E12" s="6"/>
+      <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="J12" s="6">
+      <c r="H12" s="1"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="1">
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="F13" s="6">
+      <c r="E13" s="6"/>
+      <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="J13" s="6">
+      <c r="I13" s="6"/>
+      <c r="J13" s="1">
         <v>2</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -749,21 +768,23 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+      <c r="B14" s="1">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="F14" s="6">
+      <c r="E14" s="6"/>
+      <c r="F14" s="1">
         <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="J14" s="6">
+      <c r="I14" s="6"/>
+      <c r="J14" s="1">
         <v>3</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -775,127 +796,56 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="J15" s="6">
+      <c r="I15" s="6"/>
+      <c r="J15" s="1">
         <v>4</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="1">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="F17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="F19" s="6">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="F20" s="6">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="F21" s="6">
-        <v>4</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="J17" s="1">
+        <v>6</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="L17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
+  <mergeCells count="5">
+    <mergeCell ref="J11:L11"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
